--- a/biology/Biochimie/Phoebus_Levene/Phoebus_Levene.xlsx
+++ b/biology/Biochimie/Phoebus_Levene/Phoebus_Levene.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phoebus Aaron Theodore Levene, de son nom de naissance Fishel Aaronovich Levin (né le 25 février 1869 à Zagare ; mort le 6 septembre 1940 à New York), est un biochimiste américain d'origine lituanienne[1].
-En 1909, avec son collègue Jacob, il isole la D-ribose, un composé naturel essentiel des acides nucléiques[2].
-Il découvre le désoxyribose en 1929[3]. C'est à partir de 1935 qu'on parle d'acide désoxyribonucléique (ADN). La désoxyribose est une molécule proche de la D-ribose découvert précédemment (un groupe -OH en moins), et la base de la structure de l'ADN
-Il fut membre de plusieurs prestigieuses associations scientifiques dont l'Académie nationale des sciences des États-Unis[4] et l'American Philosophical Society[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phoebus Aaron Theodore Levene, de son nom de naissance Fishel Aaronovich Levin (né le 25 février 1869 à Zagare ; mort le 6 septembre 1940 à New York), est un biochimiste américain d'origine lituanienne.
+En 1909, avec son collègue Jacob, il isole la D-ribose, un composé naturel essentiel des acides nucléiques.
+Il découvre le désoxyribose en 1929. C'est à partir de 1935 qu'on parle d'acide désoxyribonucléique (ADN). La désoxyribose est une molécule proche de la D-ribose découvert précédemment (un groupe -OH en moins), et la base de la structure de l'ADN
+Il fut membre de plusieurs prestigieuses associations scientifiques dont l'Académie nationale des sciences des États-Unis et l'American Philosophical Society.
 </t>
         </is>
       </c>
